--- a/AdvanceTools/Tools/ThaiStorybook/storybook.xlsx
+++ b/AdvanceTools/Tools/ThaiStorybook/storybook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" firstSheet="27" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="fb_1a_tr" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="739">
   <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\finalboards\subs\fb_1a_tr.subs</t>
   </si>
@@ -1308,15 +1308,9 @@
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\subs\st_11_tr.subs</t>
   </si>
   <si>
-    <t>Yennefer'ın şüpheleri doğru çıkmıştı: Ciri, Skellige'de ortaya çıkmıştı. Başka bir dünyadan, beraberinde maskeli bir büyücüyle gelmişti. O ve büyücü, onları Velen'e taşıyan portallardan kaçmadan önce Vahşi Av'la savaşmıştı.</t>
-  </si>
-  <si>
     <t>25300</t>
   </si>
   <si>
-    <t>O noktada bir iz bitti, başka bir tanesi başladı. Epey bir zaman sonra Vahşi Av yeniden Hindarsfjall'da ortaya çıkmıştı, bu da Ciri'nin Skellige'ye dönmüş olabileceği anlamına geliyordu.</t>
-  </si>
-  <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\altsubs\st_12_tr.subs</t>
   </si>
   <si>
@@ -1356,9 +1350,6 @@
     <t>24400</t>
   </si>
   <si>
-    <t>Uma'yı pençesine alan laneti kaldırmak zor olmuştu; ancak Yennefer ve efsungerler bunu yapmayı başarmıştı. Yaşayan en çirkin adamın insan değil aslında bir elf, hatta bir elf bilgesi olduğu ortaya çıktı. Avallac’h, bilgenin adı buydu, Ciri'nin Av'dan kaçmasına yardım eden, ardından da onu Sisler Adası'na saklayan elf büyücüydü.</t>
-  </si>
-  <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\altsubs\st_15_tr.subs</t>
   </si>
   <si>
@@ -1518,9 +1509,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>Kambur Batağı'ndayken Ciri, Kocakarılar'a rastgelmişti. Sevimsiz kız kardeşler onu evlerine almış, sonra da onu yiyelim mi yoksa Vahşi Av'a mı teslim edelim diye tereddütte kalmıştı. Daha kararlarını veremeden Ciri firar etmişti. Hayalet bir süvari tarafından takip edilen kız, bataklığa kaçmış, böylece Geralt bir kez daha izini kaybetmişti. Şimdi yeni bir ipucuna ihtiyacı vardı.</t>
-  </si>
-  <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\subs\st_6_tr.subs</t>
   </si>
   <si>
@@ -1533,39 +1521,21 @@
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\subs\st_7_tr.subs</t>
   </si>
   <si>
-    <t>İmparatorun casuslarının dediğine göre Ciri, Novigrad'a ulaşmıştı. Kuzey'in en büyük şehrinde tek başına onu bulma teşebbüsünün başarısız olacağı kesindi. Ama Geralt'ın bel bağlayabileceği dostları vardı. Efsunger, Triss Merigold'la temas kurmaya karar verdi.</t>
-  </si>
-  <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\subs\st_8_tr.subs</t>
   </si>
   <si>
-    <t>Triss, Geralt'a yardım edemedi. Ama onu, bir oniromensır ve kaybolanları bulma uzmanı olan Corinne Tilly'ye yönlendirdi.</t>
-  </si>
-  <si>
     <t>9300</t>
   </si>
   <si>
-    <t>Corinne Tilly'nin rehberliğinde efsunger bir rüya gördü. Rüyasında Ciriyle ben, ozan Dandelion, bir araya gelmiştik. Geralt artık, Ciri'yi bulmak için öncelikle eski dostlarından en sevdiğini bulması gerektiğini biliyordu.</t>
-  </si>
-  <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\storybook\subs\st_9_tr.subs</t>
   </si>
   <si>
     <t>9400</t>
   </si>
   <si>
-    <t>Ancak beni bulmak basit bir iş değildi, çünkü Novigrad'ın yeraltı patronlarıyla ters düşmüş olan bendeniz ortadan kaybolmuştum.</t>
-  </si>
-  <si>
     <t>13300</t>
   </si>
   <si>
-    <t>Ancak uzman bir iz sürücü olan Geralt, çok geçmeden bulunduğum yeri keşfetti: Tapınak Muhafızları'nın zindanındaki bir hücre.</t>
-  </si>
-  <si>
-    <t>Dostlarımızın yardımıyla Geralt beni kurtarmayı başardı. İyi de oldu çünkü sahiden de Ciri'nin başına ne geldiğini biliyordum. Ne yazık ki kız artık Novigrad'da değildi. Haydutlarca kovalanmanın akabinde Tapınak Muhafızları'nca da köşeye sıkıştırılınca Ciri, bir ışık parlaması ve sıcak hava rüzgârı ile ortadan kaybolmuştu. Nereye mi? İşte onu bilmiyordum.</t>
-  </si>
-  <si>
     <t>Geralt มาถึงช้าไป - Wild Hunt ได้ตัว Hendrik ก่อน Witcher ไม่ได้อะไรจากศพของสายลับเลย แต่พวก Wild Hunt กลับพลาดที่ไม่พบบันทึกของเขา Geralt อ่านบันทึกและได้ล่วงรู้ว่า Ciri ได้เป็นแขกของ Baron จอมกระหายเลือด หัวหน้าของชุมชน และนางก็กำลังมีปัญหากับพวกแม่มดอีกด้วย</t>
   </si>
   <si>
@@ -2064,9 +2034,6 @@
     <t>as for ciri? that's hard to say. since the events on Undvik, she has yet to be seen</t>
   </si>
   <si>
-    <t>หากพูดถึง Ciri? เป็นอะไรที่พูดยาก ตั้งแต่เหตุการณ์ที่ Undvik ก็ยังไม่มีใครได้พบเห็นนางอีกเลย</t>
-  </si>
-  <si>
     <t>after years in exile, Ciri returned to nilfgaard, her paternal home, where Emhyr prepared to name her his successor.</t>
   </si>
   <si>
@@ -2122,6 +2089,219 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Radovid มีข้อเสียมากมาย เขาทั้งโหดร้าย ใจร้อนและมักใหญ่ใฝ่สูง</t>
+  </si>
+  <si>
+    <t>แต่เขาก็อัฉริยะทางด้านยุทธวิธี - นั้นเป็นสิ่งที่ปฏิเษทไม่ได้ สั่งการกองทัพจากระยะไกล และสามารถเอาชนะผู้รุกรานจากทางใต้ได้</t>
+  </si>
+  <si>
+    <t>นกอินทรีแห่ง Redanian สยายปีกปกคลุมดินแดนทางเหนือทั้งหมด รวมทั้ง Novigrad ให้อยู่ภายใต้อำนาจของมัน</t>
+  </si>
+  <si>
+    <t>ในระหว่างการเปลี่ยนแปลงของกษัตริย์และพลเมือง, Geral และ Yen อยู่ด้วยกันอย่างสงบสุข ใช้ชีวิตห่างไกลจากเรื่องการเมืองทั้งปวง</t>
+  </si>
+  <si>
+    <t>พวกเขาอยู่แต่บนเตียงด้วยกันมากกว่าออกมากินอาหารเช้าหรือกลางวันเสียอีก, ออกไปเดินเล่นในวันขี้เกียจ หมดวันไปกับการสนทนาอันยาวนาน</t>
+  </si>
+  <si>
+    <t>คิดว่าคงน่าเบื่อน่าดูหละสิ ใช่ไหม? เปล่าเลย นี่คือสิ่งที่เขาทั้งคู่เฝ้าปราถนามากกว่าอะไรก็ตามในโลกเสียอีก</t>
+  </si>
+  <si>
+    <t>เป็นเรื่องยากทีจะเชื่อ, Geralt วางแผนลงหลักปักฐาน - ณ เมืองอันแสนห่างไกล Kovir</t>
+  </si>
+  <si>
+    <t>เขาและ Triss ปักหลักอยู่ด้วยกัน, บ้านของพวกเขาทั้งอบอุ่นและกลิ่นอบอวนไปด้วยเค้กที่อบเสร็จใหม่ๆ มีแขกแวะเวียนกันเข้ามาหาทั้งวันทั้งคืน</t>
+  </si>
+  <si>
+    <t>Witcher ของเราก็รับงานบ้างครั้งคราว เป็นงานอดิเรกมากกว่า ส่วน Triss ได้รับโชคชะตาที่น่ายินดียิ่ง โดยการเป็นที่ปรึกษาให้กับกษัตริย์แห่ง Kovir</t>
+  </si>
+  <si>
+    <t>เขาออกเดินทางต่อ เหมือนอย่างเคย, กินอยู่อย่างง่ายๆ, งานต่องาน อยู่บนถนน ถึงแม่จะได้เงินน้อยนิดก็ตาม</t>
+  </si>
+  <si>
+    <t>เราจะได้พบกันอีก ถึงตอนนั้นเราจะนั่งดื่มอะไรแรงๆซักแก้ว พูดคุยกันถึงวันคืนเก่าๆ และมาเล่นทายกันว่าอะไรอาจจะเกิด กำลังจะเกิด หรือน่าจะเกิดขึ้นกัน</t>
+  </si>
+  <si>
+    <t>กษัตริย์บางองค์ก็ขี้โม้ (เรื่องวีรกรรมของตัวเอง) จนเป็นนิสัย - ช่างเป็นเรื่องน่าอายเสียจริง</t>
+  </si>
+  <si>
+    <t>วิชเชอร์ถูกสร้างมาให้สังหารสัตว์ร้าย</t>
+  </si>
+  <si>
+    <t>มันไม่สำคัญว่าใครจะเป็นผู้ว่าจ้าง...ขอให้มีเงินว่าจ้างมากพอเท่านั้นเอง</t>
+  </si>
+  <si>
+    <t>วิชเชอร์ไม่สนใจ..</t>
+  </si>
+  <si>
+    <t>ความผิดชอบชั่วดีของพวกเขาไม่มีผลอะไร พวกเขาแค่ทำตามงานที่ได้รับมอบหมายเท่านั้น</t>
+  </si>
+  <si>
+    <t>จากนั้นก็หยิบถุงเงินทึ่ถูกโยนลงพื้นขึ้นมาแล้วจากไป…</t>
+  </si>
+  <si>
+    <t>ผู้คนไม่ได้คาดว่าวิชเชอร์จะช่วยเหลือพวกเขาจากความชั่วร้ายในจิตใจของตัวพวกเขาเอง</t>
+  </si>
+  <si>
+    <t>ห๊ะ!..</t>
+  </si>
+  <si>
+    <t>โว้วว...เจ้าเล่นงานเขาซะน่วมเลย..เด็กน้อย</t>
+  </si>
+  <si>
+    <t>Ciri ลงมานี่!</t>
+  </si>
+  <si>
+    <t>เฮอะ ยัยปีศาจตัวน้อย</t>
+  </si>
+  <si>
+    <t>ทันทีที่เธอกลับมา เราจะให้เธอขัดดาบทุกเล่มใน Kaer Morhen</t>
+  </si>
+  <si>
+    <t>เจอหมวกนั่นหรือยัง?</t>
+  </si>
+  <si>
+    <t>อ่า...ข้าจะทำให้มั่นใจว่าหาดาบครบทุกเล่มมาให้เจ้าเลย คอยดู</t>
+  </si>
+  <si>
+    <t>นี่มันอะไรน่ะ…?</t>
+  </si>
+  <si>
+    <t>ข้าเฝ้ารอเวลานี้มาเนิ่นนาน และตัวเจ้าด้วย เจ้าหมาป่าสีขาว</t>
+  </si>
+  <si>
+    <t>อย่าาาาาาา!</t>
+  </si>
+  <si>
+    <t>[ระวัง]</t>
+  </si>
+  <si>
+    <t>Yennefer, พวกเขาเป็นอย่างไร …</t>
+  </si>
+  <si>
+    <t>พรุ่งนี้เราจะพูดเรื่องนี้โอเคไหม หลังจากเรื่องทุกอย่างนี้</t>
+  </si>
+  <si>
+    <t>มันเงียบมาก ทุกอย่างหยุดอยู่กับที่ ไม่ไหวติงเลย.</t>
+  </si>
+  <si>
+    <t>มันเป็นกับดัก เราต้องหนีจากที่นี่ เดี๋ยวนี้เลย</t>
+  </si>
+  <si>
+    <t>ไม่ ไม่ใช่กับครั้งนี้</t>
+  </si>
+  <si>
+    <t>ไม่ Zireael. เจ้ายังไม่พร้อม เจ้ายังไม่อาจควบคุมพลังได้อย่างสมบูรณ์</t>
+  </si>
+  <si>
+    <t>เรื่องนั้นข้าจัดการเองน่า อย่ามาห้ามข้า</t>
+  </si>
+  <si>
+    <t>น้ำแข็งนั่น.. มันเป็นเวทมนต์ เจ้าต้องหาตัวคนที่ร่ายมันและทำลายคฑาของเขาซะ</t>
+  </si>
+  <si>
+    <t>ข้าจะไม่หยุดแค่ทำลายมันหรอก</t>
+  </si>
+  <si>
+    <t>ข้าขอมอบหัวใจไว้กับเจ้า? นี่มันคาถาอะไรกันเนี่ย?</t>
+  </si>
+  <si>
+    <t>มันเป็นจดหมายรักเก่าแก่...โบราณมากๆ</t>
+  </si>
+  <si>
+    <t>อย่างที่ข้าบอกไปว่าหินก้อนนี้ถูกกำหนดไว้ให้คนรักสองคนกลับมาเจอกัน</t>
+  </si>
+  <si>
+    <t>ไม่เคยคิดเลยว่าข้าต้องมาพูดอะไรแบบนี้กับ Eredin</t>
+  </si>
+  <si>
+    <t>[ ข้าขอมอบหัวใจให้กับเจ้า.. ]</t>
+  </si>
+  <si>
+    <t>มันใช้ได้ผล</t>
+  </si>
+  <si>
+    <t>[ แต่หัวของเจ้าต้องเป็นของข้า.. ]</t>
+  </si>
+  <si>
+    <t>พวกมันกำลังมาแล้ว</t>
+  </si>
+  <si>
+    <t>สู้ให้สุดชีวิตเลยนะ Geralt...</t>
+  </si>
+  <si>
+    <t>เรื่องราวนี้เริ่มต้นขึ้นใกล้กับ หมู่บ้านไวท์ ออร์เชิร์ด เพื่อนรักของข้าแกรอลท์ ออฟ ริเวีย กำลังตามหาคนรักของเขา... นักเวทย์หญิงนามว่า เยนเนเฟอร์ เธอหลบหนีจากเขาเป็นเวลานานหลายปีแล้วแต่ตอนนี้มันดูมันว่าเธอจะห่างจากเขาไปข้างหน้าเพียงแค่ไม่กี่ก้าวเท่านั้น...</t>
+  </si>
+  <si>
+    <t>หลังจากผ่านบททดสอบความยากลำบากมามากมาย ในที่สุด Geralt ก็ได้รู้ว่า Yen อยู่ที่ Vizima เมืองใกล้ๆนี่เอง</t>
+  </si>
+  <si>
+    <t>ตามที่ Yennefer แห่ง Vengerberg ได้เกล่าไว้ เกิดเหตุระเบิดโดยเวทมนต์ที่ Skellige. มันจะต้องเกี่ยวข้องกับการที่ Ciri ปรากฏตัวอีกครั้ง แรงระเบิดทำลายพื้นที่ป่าเป็นวงกว้าง Geralt ล่องเรืองตามไปร่วมกับนักเวทย์สาวที่เกาะ เพื่อช่วยสืบหาเบาะแสที่อยู่ของ Ci</t>
+  </si>
+  <si>
+    <t>ที่ Hindarsfjall. Geralt และ Yen สืบทราบว่า Ciri ได้มาที่เกาะแห่งนี้ นางได้กลับมารวมตัวกับเพื่อนของนาง นักเวทย์ผู้สวมหน้ากาก เขาทั้งคู่เดินทางไปที่ชายฝั่ง เตรียมตัวออกเรือไปในที่ๆไม่มีใครล่วงรู้ เรือลอยกลับมา พร้อมกับผู้โดยสารตนหนึ่ง - สิ่งมีชีวิตที่หลงเหลือสติปัญญาอันน้อยนิดรูปร่างอัปลักษณ์</t>
+  </si>
+  <si>
+    <t>หลังจากตามหา Ciri มาเป็นเวลานาน Geralt คิดว่า Uma, สิ่งมีชีวิตที่อัปลักษณ์ที่สุดและเป็นเหยื่อของคำสาป น่าจะเป็นกุญแจในการตามหาเด็กสาว</t>
+  </si>
+  <si>
+    <t>ในที่สุด Geralt ก็ได้พบกับ Ciri - บนเกาะแห่งสายหมอก, ที่ๆนักเวทย์เอลฟ์ซ่อนนางไว้ แต่นี่ไม่ใช่เวลาจะมาดีใจ พวก Wild Hunt ตามพวกเขามาติดๆ ทั้งคู่หนีมาได้ Ciri เทเลพอร์ททั้งคู่มาที่ Kear Morhen ที่ๆเหล่าเพื่อนๆรอพวกเขาอยู่</t>
+  </si>
+  <si>
+    <t>อย่าไรก็ตาม นักบวช Ermion มิได้ตั้งใจจะให้ Yennefer ตรวจสอบพื้นที่ป่านั่น Geralt และ Yen จึงต้องไปหา Crach หัวหน้าเผ่า an Craite ให้เขาช่วยโน้มน้าวให้นักบวชนั้นเปลี่ยนใจ</t>
+  </si>
+  <si>
+    <t>Yennefer's suspicions were correct: Ciri had appeared in Skellige. He came from another world with a masked sorceress. He and the sorcerer had fought the Wild Hunt before escaping from the portals that carried them to Velen.</t>
+  </si>
+  <si>
+    <t>There, one trail ended, another began. A good time later the Wild Hunt had reappeared on Hindarsfjall - meaning ciri, too, might here returned to Skellige.</t>
+  </si>
+  <si>
+    <t>jarls คนหนึ่งของ Skellige จับสัตว์ร้ายที่น่าสงสารได้ จากนั้นได้ขายให้พ่อค้าจาก Novigrad</t>
+  </si>
+  <si>
+    <t>The curse that held Uma proved hard to lift, but yennefer and the witchers managed to do it. The ugliest man alive revealed himself to be not man, but elf, and end elven Sage at that. Avallac'h - for this was his name - was the elven mage who has help ciri flee the Hunt, then hidden her away on the Isle of mists.</t>
+  </si>
+  <si>
+    <t>หลังจากตามหา Ciri มาเป็นเวลานาน Geralt คิดว่า Uma, สิ่งมีชีวิตที่อัปลักษณ์ที่สุดและเป็นเหยื่อของคำสาป น่าจะเป็นกุญแจในการตามหาเด็กสาว Geralt ต้องจำเป็นต้องถอนคำสาป ดังนั้นเขาจึงพา Uma ไปยังที่อยู่ของผู้เชี่ยวชาญเรื่องมนต์ดำที่ยิ่งใหญ่ที่สุดของโลก - ป้อมปราการของ Witchers ที่ Kaer Morhen</t>
+  </si>
+  <si>
+    <t>แกรอลท์กับเยนเนเฟอร์ได้พบกันอีกครั้ง..แต่มีบางอย่างที่สำคัญกว่านั้นเกิดขึ้นที่วซิม่า..แกรอลท์ได้รู้ว่า ซิริเลีย เด็กสาวที่ครั้งหนึ่งเขาเคยรับมาดูแล ได้กลับมาจากดินแดนที่แสนไกล และกำลังตกอยู่ในอันตาย เขาต้องหาตัวเธอให้พบตามคำสั่งของจักรพรรดิและคำขอร้องของเยนเนเฟอร์..</t>
+  </si>
+  <si>
+    <t>คนที่วิชเชอร์จะต้องติดต่อด้วยใน Velen คือ Hendrik สายลับของจักรพรรดิ Hendrik ทำงานอย่างลับๆ ในดินแดนที่ถูกทำลายจากสงคราม ภารกิจของเขาคือการรวบรวมข้อมูลเกี่ยวกับ Ciri.</t>
+  </si>
+  <si>
+    <t>ระหว่างที่กำลังตามหาเหล่าแม่มดที่ Ciri ไปมีเรื่องด้วย Geralt ได้ไปพบกับเพื่อนเก่า - Keira Metz นางได้บอกกับเ Geralt เกี่ยวกับนักเวทย์สวมหน้ากาก, Ciri อาจกำลังหลบซ่อนอยู่ในที่ซ่อนของเขา Witcher เดินทางเพื่อไปตรวจสอบโดยมี Keira พ่วงตามไปด้วย</t>
+  </si>
+  <si>
+    <t>While in crookback bog, ciri had happened on the crones. the beastly sisters took her in, then wavered, unsure if they should ear her or surrender her to the Wild Hunt. Ciri escaped before they could decide. Pursued by a spectral rider, she had fled into the swamp - where geralt lost her trail once more. he now needed a new lead.</t>
+  </si>
+  <si>
+    <t>ด้วยอาการบาดเจ็บและเหนื่อนล้า Ciri ได้หมดสติลงที่บึง ชาวนาบางคนได้พบเธอและได้นำตัวเธอไปส่งให้ Baron ซึ่งเป็นผู้ปกครองของ Velen เขาได้รับตัวหญิงสาวไว้และรักษาจนหายดี และได้ส่งเธอไปที่เมือง Novigrad</t>
+  </si>
+  <si>
+    <t>As the emperor's spies told it, Ciri had reached Novigrad. A lone attempt to find her in the north's largest city would certainly fail. But geralt had friends he could count on. The witcher decided to contact Triss Merigold.</t>
+  </si>
+  <si>
+    <t>Triss could not help Geralt. yet she did direct him to Corinne Tilly - an oneiromancer and an expert at finding the lost and the missing.</t>
+  </si>
+  <si>
+    <t>guided by Corinne Tilly, The Witcher had a dream. in it, ciri and I, the bard dandelion, were reunited. geralt now knew that to find ciri he would first need to find his dear old friend.</t>
+  </si>
+  <si>
+    <t>But finding me proved no simple task, for having fallen afoul of novigrad's underworld bosses, i'd disappeared.</t>
+  </si>
+  <si>
+    <t>Yet geralt soon discovered my whereabouts - a cell in the dungeon of the Temple Guard.</t>
+  </si>
+  <si>
+    <t>With the help of our friends, geralt managed to free me. good thing, too, for indeed i knew what had happened to ciri. Sadly, she was no longer in novigrad. pursued by bandits, them cornered by the temple guard, she had disappeared in a flash of light and a gust of heat. Where to ? this I did not know.</t>
+  </si>
+  <si>
+    <t>เกิดอะไรขึ้นกับ Ciri? เป็นสิ่งที่บอกได้ยาก ตั้งแต่เหตุการณ์ที่ Undvik ก็ยังไม่มีใครได้พบเห็นนางอีกเลย</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2659,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,10 +2699,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,10 +2713,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,10 +2727,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2784,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,7 +2795,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,7 +2806,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,7 +2871,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,7 +2899,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2939,10 @@
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,7 +2953,10 @@
         <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
+      </c>
+      <c r="D5" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,7 +2967,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
+      </c>
+      <c r="D6" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2984,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,7 +3024,10 @@
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
+      </c>
+      <c r="D4" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,7 +3038,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
+      </c>
+      <c r="D5" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,7 +3052,10 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -2867,6 +3065,91 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2881,7 +3164,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2908,92 +3191,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="D4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D4" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,10 +3208,10 @@
         <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,10 +3222,10 @@
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D6" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +3239,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,10 +3279,10 @@
         <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D4" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3089,10 +3293,10 @@
         <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,7 +3307,10 @@
         <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
+      </c>
+      <c r="D6" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -3116,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,15 +3364,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3217,10 +3424,10 @@
         <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,10 +3438,10 @@
         <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,10 +3452,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,10 +3466,10 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,10 +3480,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,10 +3494,10 @@
         <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3344,6 +3553,9 @@
       <c r="C4" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3355,6 +3567,9 @@
       <c r="C5" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="D5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3366,6 +3581,9 @@
       <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3377,6 +3595,9 @@
       <c r="C7" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3388,6 +3609,9 @@
       <c r="C8" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3398,6 +3622,9 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,7 +3695,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,7 +3709,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3766,7 @@
         <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,7 +3780,7 @@
         <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,7 +3794,7 @@
         <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,7 +3808,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,7 +3822,7 @@
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,7 +3836,7 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -3663,10 +3890,10 @@
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,10 +3904,10 @@
         <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,10 +3918,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,10 +3932,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,10 +3946,10 @@
         <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,10 +3960,10 @@
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D9" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -3790,10 +4017,10 @@
         <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D4" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3804,10 +4031,10 @@
         <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,10 +4045,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D6" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3832,10 +4059,10 @@
         <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,10 +4073,10 @@
         <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D8" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3860,10 +4087,10 @@
         <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D9" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -3917,10 +4144,10 @@
         <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,10 +4158,10 @@
         <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,10 +4172,10 @@
         <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,10 +4186,10 @@
         <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,10 +4200,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,10 +4214,10 @@
         <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4044,10 +4271,10 @@
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,10 +4285,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,10 +4299,10 @@
         <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,10 +4313,10 @@
         <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,10 +4327,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,10 +4341,10 @@
         <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4171,10 +4398,10 @@
         <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4412,10 @@
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4426,10 @@
         <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4440,10 @@
         <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,10 +4454,10 @@
         <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4284,10 +4511,10 @@
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,10 +4525,10 @@
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,10 +4539,10 @@
         <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D6" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,10 +4553,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,10 +4567,10 @@
         <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,10 +4581,10 @@
         <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D9" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4411,10 +4638,10 @@
         <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,10 +4652,10 @@
         <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D5" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,10 +4666,10 @@
         <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,10 +4680,10 @@
         <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,10 +4694,10 @@
         <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,10 +4708,10 @@
         <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4768,7 @@
         <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,7 +4782,7 @@
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,7 +4796,7 @@
         <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,7 +4810,7 @@
         <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,7 +4824,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,7 +4838,7 @@
         <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4895,7 @@
         <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,7 +4909,7 @@
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,7 +4923,7 @@
         <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,7 +4937,7 @@
         <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4951,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4965,7 @@
         <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4752,7 +4979,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,7 +5019,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,7 +5033,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
+      </c>
+      <c r="D5" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,7 +5047,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4868,10 +5104,10 @@
         <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,10 +5118,10 @@
         <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4896,10 +5132,10 @@
         <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,10 +5146,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,10 +5160,10 @@
         <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,10 +5174,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5112,7 +5348,7 @@
         <v>239</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,7 +5585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5390,6 +5628,9 @@
       <c r="C4" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="D4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5401,6 +5642,9 @@
       <c r="C5" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="D5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5412,6 +5656,9 @@
       <c r="C6" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="D6" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5423,6 +5670,9 @@
       <c r="C7" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="D7" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -5434,6 +5684,9 @@
       <c r="C8" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="D8" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -5445,6 +5698,9 @@
       <c r="C9" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="D9" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5456,6 +5712,9 @@
       <c r="C10" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="D10" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5467,6 +5726,9 @@
       <c r="C11" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="D11" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5478,6 +5740,9 @@
       <c r="C12" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="D12" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5489,6 +5754,9 @@
       <c r="C13" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="D13" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5500,6 +5768,9 @@
       <c r="C14" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="D14" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5510,6 +5781,9 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>334</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -5522,7 +5796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5562,6 +5838,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5615,6 +5896,9 @@
       <c r="C4" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5625,6 +5909,9 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>341</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5689,7 +5978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5730,6 +6021,9 @@
       <c r="C4" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="D4" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5741,6 +6035,9 @@
       <c r="C5" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="D5" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5752,6 +6049,9 @@
       <c r="C6" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="D6" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5763,6 +6063,9 @@
       <c r="C7" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="D7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -5774,6 +6077,9 @@
       <c r="C8" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="D8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -5785,6 +6091,9 @@
       <c r="C9" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5796,6 +6105,9 @@
       <c r="C10" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="D10" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5806,6 +6118,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>364</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +6133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5859,6 +6176,9 @@
       <c r="C4" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="D4" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5870,6 +6190,9 @@
       <c r="C5" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="D5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5881,6 +6204,9 @@
       <c r="C6" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="D6" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5892,6 +6218,9 @@
       <c r="C7" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="D7" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -5903,6 +6232,9 @@
       <c r="C8" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="D8" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -5914,6 +6246,9 @@
       <c r="C9" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="D9" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5925,6 +6260,9 @@
       <c r="C10" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="D10" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5936,6 +6274,9 @@
       <c r="C11" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="D11" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5946,6 +6287,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>392</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5958,7 +6302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5998,6 +6344,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +6359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6051,6 +6402,9 @@
       <c r="C4" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6061,6 +6415,9 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -6114,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,7 +6482,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,7 +6493,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -6149,7 +6506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6189,6 +6548,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>402</v>
+      </c>
+      <c r="D4" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6242,6 +6606,9 @@
       <c r="C4" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="D4" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6252,6 +6619,9 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>405</v>
+      </c>
+      <c r="D5" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6303,7 +6675,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6311,10 +6683,10 @@
         <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -6327,7 +6699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6336,7 +6710,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6366,7 +6740,10 @@
         <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -6379,7 +6756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6388,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6415,21 +6794,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6451,7 +6838,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6481,7 +6868,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -6494,7 +6884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6503,7 +6895,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6530,10 +6922,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="D4" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6555,7 +6952,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6582,10 +6979,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>423</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +6995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6607,7 +7006,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6631,13 +7030,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="D4" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -6659,7 +7061,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6689,7 +7091,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6697,10 +7099,10 @@
         <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6754,7 +7156,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,7 +7167,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -6778,7 +7180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6787,7 +7191,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6814,10 +7218,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +7243,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6869,7 +7273,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +7281,10 @@
         <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6893,7 +7297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6902,7 +7308,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6932,7 +7338,10 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -6954,7 +7363,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6978,13 +7387,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7006,7 +7415,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7033,10 +7442,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,21 +7453,21 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -7080,7 +7489,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7110,7 +7519,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7132,7 +7541,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7162,18 +7571,18 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +7604,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7219,13 +7628,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -7247,7 +7656,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7274,21 +7683,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7301,7 +7710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7310,7 +7721,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7337,10 +7748,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7394,7 +7808,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,7 +7819,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,7 +7830,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7430,7 +7844,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7443,7 +7857,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7470,24 +7884,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7500,7 +7917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7509,7 +7928,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7533,13 +7952,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
+      </c>
+      <c r="D4" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -7552,7 +7974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7561,7 +7985,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7591,7 +8015,10 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
+      </c>
+      <c r="D4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,10 +8026,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -7615,7 +8042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7624,7 +8053,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7648,13 +8077,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>477</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -7667,7 +8096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7676,7 +8107,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7703,10 +8134,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+      <c r="D4" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -7719,7 +8153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7728,7 +8164,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7755,10 +8191,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>482</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +8207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7780,7 +8218,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7804,24 +8242,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>484</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7834,7 +8272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7843,7 +8283,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7870,10 +8310,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>489</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,21 +8321,21 @@
         <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -7949,10 +8389,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7963,10 +8403,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7977,10 +8417,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -8034,7 +8474,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8045,7 +8485,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8056,7 +8496,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8510,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8110,10 +8550,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8124,10 +8564,10 @@
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8138,10 +8578,10 @@
         <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/AdvanceTools/Tools/ThaiStorybook/storybook.xlsx
+++ b/AdvanceTools/Tools/ThaiStorybook/storybook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" firstSheet="55" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="fb_1a_tr" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="740">
   <si>
     <t>D:\Project\mod\ThaiStoryBook\modThaiStoryBook\files\movies\cutscenes\finalboards\subs\fb_1a_tr.subs</t>
   </si>
@@ -2302,6 +2302,9 @@
   </si>
   <si>
     <t>เกิดอะไรขึ้นกับ Ciri? เป็นสิ่งที่บอกได้ยาก ตั้งแต่เหตุการณ์ที่ Undvik ก็ยังไม่มีใครได้พบเห็นนางอีกเลย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciri ไม่ได้พบ Elven mage แต่พวก Wild Hunt ต่างหากที่ได้เจอ ดูเหมือนว่าบริวารของพวกผีร้ายได้ล้ำหน้า Geralt ไป 1 ก้าว Witcher รู้สึกเหมือนหมดหนทางแล้ว กระทั่ง Keira ได้บอกเขาถึงเบาะแสใหม่ นั่นคือ The Crones of Crookback Bog </t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -2355,6 +2358,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3323,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -7974,8 +7978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8031,10 +8035,13 @@
       <c r="C5" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>739</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
